--- a/src/benchmarks/benchmark results/@time_benchmark_NyNb.xlsx
+++ b/src/benchmarks/benchmark results/@time_benchmark_NyNb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dengmingzhuo\Desktop\google drive\CSEC thesis\ParallelDefault\src\benchmarks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dengmingzhuo\Desktop\google drive\ParallelDefault\src\benchmarks\benchmark results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0586AB2-A773-4B6B-9E83-AC046A0CC301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFFC900-0852-4E9D-852D-6135176DA52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F0059A30-72C7-43EC-9AA3-F209656A0A28}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="9">
   <si>
     <t>Debt points</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +104,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -131,10 +136,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -162,8 +168,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{0BF35640-5972-4BC1-9A61-A99831A1B720}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F64389-7810-498D-9016-DD3DF3A27A30}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1333,8 +1340,8 @@
       <c r="C51" s="7">
         <v>2.61079E-4</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>7</v>
+      <c r="D51" s="7">
+        <v>33.130200000000002</v>
       </c>
       <c r="E51" s="7">
         <v>0.17818400000000001</v>
@@ -1350,8 +1357,8 @@
       <c r="C52" s="7">
         <v>4.0022199999999999E-4</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>7</v>
+      <c r="D52" s="7">
+        <v>50.801600000000001</v>
       </c>
       <c r="E52" s="7">
         <v>0.24680099999999999</v>
@@ -1367,8 +1374,8 @@
       <c r="C53" s="7">
         <v>5.7234199999999999E-4</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>7</v>
+      <c r="D53" s="7">
+        <v>75.895499999999998</v>
       </c>
       <c r="E53" s="7">
         <v>0.32797900000000002</v>
@@ -1384,8 +1391,8 @@
       <c r="C54" s="7">
         <v>4.6453E-4</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>7</v>
+      <c r="D54" s="7">
+        <v>106.009</v>
       </c>
       <c r="E54" s="7">
         <v>0.45083499999999999</v>
@@ -1401,8 +1408,8 @@
       <c r="C55" s="7">
         <v>6.9293499999999999E-4</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>7</v>
+      <c r="D55" s="7">
+        <v>148.24799999999999</v>
       </c>
       <c r="E55" s="7">
         <v>0.53509399999999996</v>
@@ -1418,8 +1425,8 @@
       <c r="C56" s="7">
         <v>7.2579199999999995E-4</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>7</v>
+      <c r="D56" s="7">
+        <v>198.25</v>
       </c>
       <c r="E56" s="7">
         <v>0.67973099999999997</v>
@@ -1435,8 +1442,8 @@
       <c r="C57" s="7">
         <v>8.5284499999999997E-4</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>7</v>
+      <c r="D57" s="7">
+        <v>263.38299999999998</v>
       </c>
       <c r="E57" s="7">
         <v>0.95790600000000004</v>
